--- a/conversion_guide.xlsx
+++ b/conversion_guide.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/code/rapidtide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896310FB-CEB8-3548-B6B9-AB3FE1C1E150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02598AA1-77BE-9847-A27C-8A496022AE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="35760" windowHeight="17440" xr2:uid="{D55FA967-9DA8-E940-9EF9-3A1162C039B2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35760" windowHeight="17440" xr2:uid="{D55FA967-9DA8-E940-9EF9-3A1162C039B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="264">
   <si>
     <t> </t>
   </si>
@@ -56,9 +56,6 @@
     <t>--datafreq=FREQ </t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>  </t>
   </si>
   <si>
@@ -795,6 +792,39 @@
   </si>
   <si>
     <t>The sample frequency (or timestep) of the probe regressor specified in --regressor.  Regressorfreq and regressortstep are mutually  exclusive - specify one or the other, but not both.  If not specified, the sample frequency is assumed to be equal to the sample frequency of the data.  The regressor will be resampled automatically.</t>
+  </si>
+  <si>
+    <t>This turns off the antialiasing filter on the data.  You probably don't want to do this unless you are trying to match a signal that has a frequency which is aliased in the data - for example a cardiac signal in a conventional  (TR &gt; 0.5s) fMRI file.</t>
+  </si>
+  <si>
+    <t>This inverts the sign of the regressor prior to correlation.</t>
+  </si>
+  <si>
+    <t>The permutation method used for estimating the null correlation threshold.  Valid options are 'shuffle' and 'phaserandom'.  Shuffle is the default - phaserandom is likely more correct, but is not fully implemented yet, so is not recommended.</t>
+  </si>
+  <si>
+    <t>Do not fit the null correlation distribution.  Not something you would usually set - only used if for some reason the distribution fit is failing.</t>
+  </si>
+  <si>
+    <t>The window function applied to the data and regressor prior to correlation.  The default is 'hamming'.</t>
+  </si>
+  <si>
+    <t>Disables correlation windowing.  Equivalent to -'-windowfunc None'.  Not recommended.</t>
+  </si>
+  <si>
+    <t>The sample frequency (or time) of the data file.  If the datafile is an fMRI nifti file, this is optional, and if set, overrides the TR.  If the datafile is a text file (NIRS, for example), this is required.</t>
+  </si>
+  <si>
+    <t>The interpolation method to use in resampling.  Default is 'univariate'.  Probably not something you want to change.</t>
+  </si>
+  <si>
+    <t>The number of null correlations to run to estimate the null correlation threshold.  Default is 10000.  Set to 0 to skip null correlation estimation.</t>
+  </si>
+  <si>
+    <t>Use the global mean signal as the probe regressor.  If no regressor is specified, this is turned on by default.</t>
+  </si>
+  <si>
+    <t>Apply a three dimensional spatial Gaussian filter to the input data, with a sigma of GAUSSSIGMA mm.</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7337C416-5443-6B40-9543-4EB2904DE316}">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1200,7 @@
     <col min="8" max="8" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,13 +1217,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,15 +1272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1256,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,13 +1335,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,1863 +1361,1702 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="D64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F66" s="1"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="F96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    </row>
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="F62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="6:29" x14ac:dyDescent="0.2">
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="6:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="F102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>0</v>
@@ -3196,30 +3071,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3227,30 +3102,30 @@
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>0</v>
@@ -3265,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>0</v>
@@ -3282,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>0</v>
@@ -3311,9 +3186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -3328,21 +3203,21 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>0</v>
@@ -3351,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>0</v>
@@ -3374,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>0</v>
@@ -3382,13 +3257,13 @@
     </row>
     <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>0</v>
@@ -3397,14 +3272,25 @@
         <v>0</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,17 +3302,41 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,17 +3348,41 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3459,65 +3393,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F119" s="2"/>
+    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="F121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F122" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,72 +3463,37 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="F123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3605,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>0</v>
@@ -3614,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>0</v>
@@ -3645,7 +3544,7 @@
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
@@ -3668,13 +3567,13 @@
     </row>
     <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>0</v>
@@ -3683,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>0</v>
@@ -3706,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>0</v>
@@ -3714,7 +3613,7 @@
     </row>
     <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
@@ -3729,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3743,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>0</v>
@@ -3760,13 +3659,13 @@
     </row>
     <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>0</v>
@@ -3775,21 +3674,21 @@
         <v>0</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>0</v>
@@ -3806,7 +3705,7 @@
     </row>
     <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
@@ -3821,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3835,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>0</v>
@@ -3852,7 +3751,7 @@
     </row>
     <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
@@ -3881,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>0</v>
@@ -3897,18 +3796,41 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3920,6 +3842,18 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>0</v>
       </c>
@@ -3930,27 +3864,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F142" s="2"/>
+    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3961,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>0</v>
@@ -3970,15 +3927,15 @@
         <v>0</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
@@ -3993,21 +3950,21 @@
         <v>0</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>0</v>
@@ -4024,13 +3981,13 @@
     </row>
     <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>0</v>
@@ -4039,21 +3996,21 @@
         <v>0</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>0</v>
@@ -4070,7 +4027,7 @@
     </row>
     <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
@@ -4085,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4099,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>0</v>
@@ -4116,13 +4073,13 @@
     </row>
     <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>0</v>
@@ -4131,15 +4088,15 @@
         <v>0</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
@@ -4154,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>0</v>
@@ -4162,13 +4119,13 @@
     </row>
     <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>0</v>
@@ -4177,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4191,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>0</v>
@@ -4208,13 +4165,13 @@
     </row>
     <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>0</v>
@@ -4231,36 +4188,36 @@
     </row>
     <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>0</v>
@@ -4269,21 +4226,21 @@
         <v>0</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>0</v>
@@ -4300,13 +4257,13 @@
     </row>
     <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>0</v>
@@ -4315,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>0</v>
@@ -4323,13 +4280,13 @@
     </row>
     <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>0</v>
@@ -4338,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>0</v>
@@ -4346,13 +4303,13 @@
     </row>
     <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>0</v>
@@ -4361,21 +4318,21 @@
         <v>0</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>0</v>
@@ -4392,105 +4349,59 @@
     </row>
     <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>91</v>
-      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
     </row>
     <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>0</v>
@@ -4499,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4513,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>0</v>
@@ -4522,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>0</v>
@@ -4536,24 +4447,24 @@
         <v>0</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
         <v>0</v>
@@ -4568,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>0</v>
@@ -4582,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>0</v>
@@ -4591,21 +4502,21 @@
         <v>0</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
         <v>0</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>0</v>
@@ -4614,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>0</v>
@@ -4628,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>0</v>
@@ -4637,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>0</v>
@@ -4645,7 +4556,7 @@
     </row>
     <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B174" t="s">
         <v>0</v>
@@ -4660,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4674,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>0</v>
@@ -4683,67 +4594,39 @@
         <v>0</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>0</v>
@@ -4752,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>0</v>
@@ -4766,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>0</v>
@@ -4775,21 +4658,21 @@
         <v>0</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>0</v>
@@ -4798,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>0</v>
@@ -4806,48 +4689,94 @@
     </row>
     <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F181" s="2"/>
+      <c r="F181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="2"/>
+      <c r="F182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>47</v>
+        <v>232</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4858,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>0</v>
@@ -4867,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>0</v>
@@ -4881,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>0</v>
@@ -4890,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>0</v>
@@ -4904,24 +4833,24 @@
         <v>0</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
@@ -4936,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>0</v>
@@ -4950,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>0</v>
@@ -4959,15 +4888,15 @@
         <v>0</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
         <v>0</v>
@@ -4982,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>0</v>
@@ -4990,13 +4919,13 @@
     </row>
     <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>0</v>
@@ -5005,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>0</v>
@@ -5013,13 +4942,13 @@
     </row>
     <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>0</v>
@@ -5028,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>0</v>
@@ -5042,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>0</v>
@@ -5051,28 +4980,56 @@
         <v>0</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
-      <c r="F194" s="2"/>
+    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -5083,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>0</v>
@@ -5092,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>0</v>
@@ -5106,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>0</v>
@@ -5115,21 +5072,21 @@
         <v>0</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>0</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>0</v>
@@ -5138,125 +5095,70 @@
         <v>0</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A199" s="2"/>
       <c r="F199" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F200" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" t="s">
-        <v>0</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B203" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -5267,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>0</v>
@@ -5276,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>0</v>
@@ -5284,13 +5186,13 @@
     </row>
     <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
         <v>0</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>0</v>
@@ -5299,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>0</v>
@@ -5307,13 +5209,13 @@
     </row>
     <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B206" t="s">
         <v>0</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>0</v>
@@ -5322,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>0</v>
@@ -5330,13 +5232,13 @@
     </row>
     <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>0</v>
@@ -5345,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>0</v>
@@ -5353,13 +5255,13 @@
     </row>
     <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B208" t="s">
         <v>0</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>0</v>
@@ -5368,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>0</v>
@@ -5376,7 +5278,7 @@
     </row>
     <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
         <v>0</v>
@@ -5391,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>0</v>
@@ -5405,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>0</v>
@@ -5414,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>0</v>
@@ -5422,13 +5324,13 @@
     </row>
     <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
         <v>0</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>0</v>
@@ -5445,7 +5347,7 @@
     </row>
     <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B212" t="s">
         <v>0</v>
@@ -5460,15 +5362,15 @@
         <v>0</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
         <v>0</v>
@@ -5491,13 +5393,13 @@
     </row>
     <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
         <v>0</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>0</v>
@@ -5514,374 +5416,15 @@
     </row>
     <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B215" t="s">
         <v>0</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B216" t="s">
-        <v>0</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
-      <c r="F217" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F218" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F219" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F220" s="2"/>
-    </row>
-    <row r="221" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222" t="s">
-        <v>0</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B223" t="s">
-        <v>0</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H223" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" t="s">
-        <v>0</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H224" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B225" t="s">
-        <v>0</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H226" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" t="s">
-        <v>0</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B229" t="s">
-        <v>0</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B230" t="s">
-        <v>0</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H230" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B231" t="s">
-        <v>0</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" t="s">
-        <v>0</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/conversion_guide.xlsx
+++ b/conversion_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/code/rapidtide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02598AA1-77BE-9847-A27C-8A496022AE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25B4DA-F8E4-4D44-8AA1-F2E96D1E716B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35760" windowHeight="17440" xr2:uid="{D55FA967-9DA8-E940-9EF9-3A1162C039B2}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="35760" windowHeight="17440" xr2:uid="{D55FA967-9DA8-E940-9EF9-3A1162C039B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="267">
   <si>
     <t> </t>
   </si>
@@ -122,9 +122,6 @@
     <t>GAUSSSIGMA </t>
   </si>
   <si>
-    <t>analysis</t>
-  </si>
-  <si>
     <t>GAUSSSIGMA</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>LAGMIN,LAGMAX</t>
   </si>
   <si>
-    <t>LAGMIN</t>
-  </si>
-  <si>
     <t>-s</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
     <t>--filterfreqs</t>
   </si>
   <si>
-    <t>LOWERPASS</t>
-  </si>
-  <si>
     <t>--filtertype</t>
   </si>
   <si>
@@ -825,6 +816,24 @@
   </si>
   <si>
     <t>Apply a three dimensional spatial Gaussian filter to the input data, with a sigma of GAUSSSIGMA mm.</t>
+  </si>
+  <si>
+    <t>Sets the order of the polynomial used to remove the baseline from the data and regressors prior to correlation.  The default is 3.  Setting to 0 disables detrending.</t>
+  </si>
+  <si>
+    <t>Divide each voxel's timecourse by its mean over time prior to global mean estimation.  This doesn't seem to change much for fMRI data, but it may be useful for NIRS.</t>
+  </si>
+  <si>
+    <t>Set the number of seconds of padding to apply at each end of a timecourse prior to filtering.  The signal is reflected around the end of the timecourse to make the padding signal in order to suppress end effects.  The default value is 30 seconds, which is generally sufficient.  If you have extremely short data files you may need to select a shorter number to avoid crashes.</t>
+  </si>
+  <si>
+    <t>The spectral weighting function to apply to the correlation function.  These are various different correction strategies for doing a generalized cross-correlation (GCC).  The goal of the GCC is to compensate for non-white spectra of the regressor and/or data.  The default is None (ordinary, unweighted cross-correlation)</t>
+  </si>
+  <si>
+    <t>LAGMIN LAGMAX</t>
+  </si>
+  <si>
+    <t>LOWERPASS UPPERPASS LOWERSTOP UPPERSTOP</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7337C416-5443-6B40-9543-4EB2904DE316}">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1243,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1289,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1312,10 +1321,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1326,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1335,24 +1347,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1364,48 +1376,59 @@
         <v>139</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1415,6 +1438,9 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1422,21 +1448,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -1445,10 +1474,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>145</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1459,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
@@ -1468,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>255</v>
@@ -1485,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>261</v>
@@ -1511,22 +1543,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1537,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -1546,39 +1578,30 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1588,43 +1611,40 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1635,22 +1655,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1660,14 +1677,20 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1678,732 +1701,767 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
       <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
       <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F45" s="1"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F66" s="1"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,24 +2472,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2439,33 +2526,30 @@
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>0</v>
@@ -2474,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>0</v>
@@ -2503,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -2520,24 +2604,21 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>0</v>
@@ -2546,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>0</v>
@@ -2569,16 +2650,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -2595,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2609,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>0</v>
@@ -2649,13 +2727,13 @@
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>0</v>
@@ -2664,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>0</v>
@@ -2687,21 +2765,21 @@
         <v>0</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>0</v>
@@ -2718,13 +2796,13 @@
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>0</v>
@@ -2741,13 +2819,13 @@
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>0</v>
@@ -2763,41 +2841,18 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="F88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F89" s="1" t="s">
         <v>0</v>
       </c>
@@ -2809,18 +2864,6 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,50 +2874,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2885,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>0</v>
@@ -2894,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2925,13 +2945,13 @@
     </row>
     <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>0</v>
@@ -2940,36 +2960,71 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,6 +3036,18 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,37 +3059,72 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F101" s="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3033,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3079,42 +3181,42 @@
         <v>0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3125,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>0</v>
@@ -3142,13 +3244,13 @@
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>0</v>
@@ -3157,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3171,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>0</v>
@@ -3203,21 +3305,21 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>0</v>
@@ -3226,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>0</v>
@@ -3234,13 +3336,13 @@
     </row>
     <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>0</v>
@@ -3249,21 +3351,21 @@
         <v>0</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>0</v>
@@ -3272,21 +3374,21 @@
         <v>0</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>0</v>
@@ -3295,21 +3397,21 @@
         <v>0</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>0</v>
@@ -3326,13 +3428,13 @@
     </row>
     <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>0</v>
@@ -3341,21 +3443,21 @@
         <v>0</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>0</v>
@@ -3364,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3378,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>0</v>
@@ -3387,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>0</v>
@@ -3410,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>0</v>
@@ -3424,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>0</v>
@@ -3440,18 +3542,41 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>0</v>
       </c>
@@ -3463,37 +3588,72 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F124" s="2"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3504,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>0</v>
@@ -3513,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3536,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>0</v>
@@ -3544,13 +3704,13 @@
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>0</v>
@@ -3559,21 +3719,21 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>0</v>
@@ -3582,34 +3742,26 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -3624,71 +3776,33 @@
       <c r="D131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>0</v>
@@ -3697,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>0</v>
@@ -3705,13 +3819,13 @@
     </row>
     <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>0</v>
@@ -3720,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3734,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3780,19 +3894,19 @@
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3812,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3826,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>0</v>
@@ -3835,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>0</v>
@@ -3872,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>0</v>
@@ -3881,67 +3995,39 @@
         <v>0</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>208</v>
-      </c>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>0</v>
@@ -3950,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3964,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>0</v>
@@ -3981,13 +4067,13 @@
     </row>
     <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>0</v>
@@ -3996,21 +4082,21 @@
         <v>0</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>0</v>
@@ -4019,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>0</v>
@@ -4027,13 +4113,13 @@
     </row>
     <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>0</v>
@@ -4042,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4056,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>0</v>
@@ -4065,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>0</v>
@@ -4079,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>0</v>
@@ -4088,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>0</v>
@@ -4096,13 +4182,13 @@
     </row>
     <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>0</v>
@@ -4111,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>0</v>
@@ -4125,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>0</v>
@@ -4134,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>0</v>
@@ -4148,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>0</v>
@@ -4157,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>0</v>
@@ -4165,13 +4251,13 @@
     </row>
     <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>0</v>
@@ -4180,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>0</v>
@@ -4188,13 +4274,13 @@
     </row>
     <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>0</v>
@@ -4203,21 +4289,21 @@
         <v>0</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>0</v>
@@ -4226,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>0</v>
@@ -4249,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>0</v>
@@ -4263,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>0</v>
@@ -4272,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>0</v>
@@ -4280,13 +4366,13 @@
     </row>
     <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>0</v>
@@ -4295,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>0</v>
@@ -4303,13 +4389,13 @@
     </row>
     <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>0</v>
@@ -4318,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4355,134 +4441,125 @@
         <v>0</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F163" s="2"/>
+      <c r="F163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="2"/>
+      <c r="F164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B166" t="s">
-        <v>46</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="F166" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>107</v>
-      </c>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4493,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>0</v>
@@ -4502,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -4539,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>0</v>
@@ -4548,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>0</v>
@@ -4585,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>0</v>
@@ -4594,39 +4671,67 @@
         <v>0</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="2"/>
-      <c r="F176" s="2"/>
+    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>46</v>
+        <v>245</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>0</v>
@@ -4635,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>0</v>
@@ -4643,13 +4748,13 @@
     </row>
     <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>0</v>
@@ -4658,21 +4763,21 @@
         <v>0</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>0</v>
@@ -4681,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>0</v>
@@ -4704,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>0</v>
@@ -4712,719 +4817,15 @@
     </row>
     <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B194" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A199" s="2"/>
-      <c r="F199" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="F201" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B207" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" t="s">
-        <v>0</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H210" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" t="s">
-        <v>0</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H211" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" t="s">
-        <v>0</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" t="s">
-        <v>0</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214" t="s">
-        <v>0</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215" t="s">
-        <v>0</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" s="3" t="s">
         <v>0</v>
       </c>
     </row>
